--- a/PRODUTOS/Bebidas/Bebidas - Sucos e cha.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Sucos e cha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Abacaxi 18g</t>
+          <t>Chá Pronto Matte Leão Ice Tea Limão 1,5lt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50b654de-d78f-4022-b34b-1268a0961d66.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39d02759-008a-4589-bdfb-48ff38482969.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891098038456</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suco Uva E Maçã Natural One Ambiente Garrafa 180ml</t>
+          <t>Chá Pronto Leão Matte Original 450ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29a2b73c-8067-4803-a63c-7320cf8ee783.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3dbb329-d651-4683-bd59-2841f6ce8a83.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891098040688</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Refresco Em Po Tang 18g Maracuja</t>
+          <t>Chá Matte Leão Sabor Limão 450ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f61cf758-9664-4f58-b463-a4dc63a0c84d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d32ad01-9e38-4109-9a4d-8d8c4563d8b9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891098040749</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Limão 18g</t>
+          <t>Chá Matte Leao 1,5l Zero Limão</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6621e7ae-7207-4234-a1a7-a82527caf73f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/514dac77-5654-4a3e-97fa-5d577db29376.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891098040572</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Laranja 18g</t>
+          <t>Chá Verde Leão Reequilibra 1,5lt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/347fa9de-5d27-4790-a73b-b3a3e22bf2ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee67679d-4d7c-4bf6-9b3e-ce4e7b3afbf7.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891098041883</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Manga 18g</t>
+          <t>Chá Pronto Leão Ice Tea Preto Com Limão 450ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f052abf6-f772-4102-99ec-8e09c4698400.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdbc7288-2e86-4e04-875b-fbe4753f1fdc.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891098040848</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Suco Misto Natural One 180ml Laranja E Maça Ambiente</t>
+          <t>Chá Pronto Leão Ice Tea Zero Açúcar Preto Com Pêssego 450ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08e527a0-a322-4644-bdf4-a564ca823b79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b43bda1-87f4-4136-83a6-55a562f1b396.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891098041142</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Refresco Em Po Tang 18g Uva Intensa</t>
+          <t>Cha Matte Leao Pet 450ml Guarana</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9b94a39-3030-4529-9c71-d14076dfea87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a750052-ce4a-453b-a41e-635a74c3f0c1.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891098041814</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Laranja Docinha 18g</t>
+          <t>Chá Pronto Leão Ice Tea Preto Com Pêssego 450ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0fa6cbc-e35e-45e7-b09e-f282d575f6ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e5fd48-a42f-45c2-a832-0d25802d77a4.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891098041142</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Uva 18g</t>
+          <t>Chá Pronto Matte Leão Ice Tea Pêssego 1,5lt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d3ea759-d225-4fdc-872a-b8434a1fb7bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c38bf0d2-4775-4649-8428-0a70fc21aa03.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891098041142</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Refresco Em Po Tang 18g Morango</t>
+          <t>Bebida Á Base De Soja Mupy 200ml Maça</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f52b617-d1e8-420d-b65c-0590ce42cb07.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a36a8ce1-0f53-440e-919e-0fa698185684.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896293808101</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Guaraná 18g</t>
+          <t>Néctar Maguary 1l Caju</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d4983c3-1c18-4ab7-b24e-3df8568ae908.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d35fc49-7c65-463d-a61a-a593284e2bad.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896005404195</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Uva</t>
+          <t>Refresco Em Pó Mid 10g Zero Tangerina</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eebbfad4-de8f-49e9-89c0-48a294268bcd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7ab7f2e-360a-4792-a953-dc3d16b89122.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891132001057</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Suco Concentrado Del Valle Uva 1lt</t>
+          <t>Néctar Dafruta 1l Caju</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efc57f06-c048-495a-945b-da74d35e6b01.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d41b7a4-599a-40a8-b301-73801a28dda7.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896005401279</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang 18g Tangerina</t>
+          <t>Néctar Dafruta 1l Goiaba</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44689319-fcc3-4e0f-8e7d-d20ac986af23.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f94799da-b4ef-415e-87b7-3673a0bc37a0.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896005401279</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Laranja</t>
+          <t>Néctar Sufresh 1l Uva</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/698aa66c-4a57-4302-acfc-68bd6f77a349.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93435600-c127-4ca9-bba9-535fd257d086.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7898192030072</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Abacaxi</t>
+          <t>Néctar Sufresh 1l Caju</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94741fa-921f-499f-bc2b-aac3a19f6e8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96910519-3e59-4bd3-ae67-67e3de3edbfa.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898192030485</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Limonada Suiça</t>
+          <t>Bebida Mista Vigor 200ml Laranja</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ff04911-0db0-4842-ac98-09c4b7e65e4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef57ef4d-31f3-4904-97db-3660ca327cfb.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891999100023</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Maracuja</t>
+          <t>Bebida Mista Vigor 200ml Maça</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 2,79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de9e98b-45e2-4b07-a624-ddb1f3a37780.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91a12b58-337d-4bff-a791-9a2a695821ca.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891999100023</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Refresco Em Po Tang 18g Goiaba</t>
+          <t>Suco Concentrado Dafruta 500ml Caju</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92b2e1ae-2652-49b3-81f1-c638c2baea5f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab5b68db-884b-4dfd-a3ae-ad80e43d016b.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896005400029</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Suco De Uva Kapo Del Valle 200ml</t>
+          <t>Néctar De Maracujá Sufresh 200ml</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 3,19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a2d1e9d-da58-4807-be07-2e3d39d7c5d9.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898192030065</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang Laranja E Mamão 18g</t>
+          <t>Refresco Em Pó Mid 8g Zero Maracuja</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/410412d4-e5ce-4d69-b0ee-d1960bfa445c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1025aef0-e78a-4ebd-8a39-b3f81a108f25.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891132001019</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Uva</t>
+          <t>Refresco Em Pó Mid 8g Zero Laranja</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd0dfaac-ef75-4d7d-89a3-1a2ac03d0ec1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5178420-a430-4752-b11a-7f38e733e0f6.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891132000999</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Limao</t>
+          <t>Cha Matte Leão 1,5l Limão</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/420d99f8-1d38-4cb0-a881-9d55a025ec31.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55aafcf4-75ff-4a2f-b2fe-122e881c3a2d.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891098040749</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 20g Guaraná</t>
+          <t>Cha Matte Leão 1,5l Natural</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96a0dffc-e233-48ee-954e-95ce6bb9a5e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0deb9d28-e32b-4834-881d-8adc7f9dd1f1.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891098040565</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Caju</t>
+          <t>Bebida Á Base De Soja Mupy 200ml Maracuja</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b2bcdbb-247b-43e7-afe5-ef15bcb30779.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9b8163c-662f-4c38-9afd-4ba3568d3f27.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896293808101</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Caju</t>
+          <t>Suco Sufresh 200ml Laranja</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6ab2740-73bb-42cb-988d-2ced76ea5110.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6539302-a729-4b95-b665-42909e4c5599.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898192030591</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Maça</t>
+          <t>Refresco Em Pó Mid 8g Zero Amora</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4f75103-a76e-4696-b886-83ff2569aa99.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f70cf49-07eb-4622-a3cf-a8f4b7718634.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891132001460</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Suco Concentrado Del Valle Laranja 1lt</t>
+          <t>Nectar Sufresh 1l Manga</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9da537b-75ae-4ca7-b08b-8463ef6711f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e50c7786-1ce9-42b7-b1bc-8d7c78e01649.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898192030584</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chá Verde Leão Reequilibra 1,5lt</t>
+          <t>Bebida Á Base De Soja Ades 200ml Uva</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee67679d-4d7c-4bf6-9b3e-ce4e7b3afbf7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/889b3ebd-07bd-4f8b-ba76-7ab1a8f73896.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7894900087123</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Suco Laranja Natural One Ambiente Garrafa 900ml</t>
+          <t>Bebida Á Base De Soja Ades 200ml Abacaxi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/527f2cfc-bd77-4e76-95de-fe9a24f79f48.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b309f399-51d3-4d42-a72f-063f060c1deb.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7894900087017</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Jabuticaba</t>
+          <t>Bebida Á Base De Soja Ades 200ml Maça</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b60616d-8e79-47d2-80d7-db4c7ca545fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4f75103-a76e-4696-b886-83ff2569aa99.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7894900087062</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Groselha</t>
+          <t>Bebida Á Base De Soja Ades 200ml Pêssego</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f5f156e-9209-461b-869d-ff8af577eb43.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffd5f33d-1f5c-45f2-8a61-cd9b73c163d6.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7894900087116</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Laranja Doce</t>
+          <t>Bebida Á Base De Soja Ades 200ml Laranja</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5188e5d1-3be5-4ddf-903f-364102865341.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac51ae42-bd33-4898-a927-953f2dbac8b6.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7894900087055</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Maracujá</t>
+          <t>Bebida Á Base De Soja Ades 1l Pêssego</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebd3c2cc-72a7-4da9-9389-9649d98f58b0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65b33478-79b4-4281-a10a-97c22848237b.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7894900087109</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Refresco Em Po Frisco 18g Abacaxi</t>
+          <t>Refresco Em Pó Mid 8g Zero Manga</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a2ccb57-becd-4d93-b29c-3a46cf8a3c4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9540ff78-38af-47bf-aed5-04d448b1f00e.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7891132001453</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Laranja</t>
+          <t>Bebida Á Base De Soja Ades 1l Maça</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35d5aab2-7bee-45d3-8376-15ad981d8c04.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f677a51f-fa54-49d3-ad34-1df848cd025a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7894900087062</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Frisco 18g Maracuja</t>
+          <t>Suco De Abacaxi Kapo Del Valle 200ml</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6da1cc9-9a2f-4542-91ea-171a79f984ce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d904801b-c056-4059-8acc-3e0c704f3286.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7894900603705</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Manga</t>
+          <t>Néctar Maguary 1l Laranja</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/061054b2-fca3-4a96-8714-36c60a61f1fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35d5aab2-7bee-45d3-8376-15ad981d8c04.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896005404195</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Néctar De Uva Del Valle Mais 1lt</t>
+          <t>Néctar Maguary 1l Goiaba</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f67ac06-7636-4550-9ea0-0f0ba8f0f78f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46a5e78f-800d-497c-999d-b9ec130a37e9.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896005404201</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Goiaba</t>
+          <t>Néctar Maguary 1l Uva</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31f27097-18ff-465b-bf82-989106a5cf37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd0dfaac-ef75-4d7d-89a3-1a2ac03d0ec1.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896005404195</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Laranja</t>
+          <t>Néctar Maguary 1l Maracujá</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9278f657-8451-4b6b-a823-bf4c9c2e22d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebd3c2cc-72a7-4da9-9389-9649d98f58b0.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896000594068</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Maracujá</t>
+          <t>Suco Concentrado Maguary 500ml Caju</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 13,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1e04cb2-ecd8-45f5-bbf6-a99eddc94924.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6ab2740-73bb-42cb-988d-2ced76ea5110.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896000554369</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Suco De Maracujá Kapo Del Valle 200ml</t>
+          <t>Suco Concentrado Maguary 500ml Maracujá</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 13,49</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/128c3e84-2dfd-46e6-bb7a-b67573b3d46a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1e04cb2-ecd8-45f5-bbf6-a99eddc94924.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896000556066</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Frisco 18g Manga</t>
+          <t>Suco Concentrado Maguary 500ml Uva</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 8,39</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7861daf-2aaa-4bbd-874f-2f2f563d2a46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8aed040-6e6a-4b4c-9b75-0014d38f0781.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896000556066</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Graviola</t>
+          <t>Suco Concentrado Maguary 500ml Abacaxi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27541500-0f12-494d-bff8-f73786c8ee41.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b6c697-a4ea-4364-9c60-d155572a7c92.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896000557056</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Maracuja</t>
+          <t>Suco Concentrado Maguary 500ml Manga</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd30ed22-e510-4142-b489-b77108b59660.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d12c759e-54c6-45b6-92eb-54e26f74b668.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896000556066</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Néctar Dafruta 200ml Uva</t>
+          <t>Suco Concentrado Maguary 500ml Goiaba</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 8,59</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcf00fdc-b99e-49ac-8258-09d8f59d1745.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2e5b630-84ef-4e02-b0ba-aecc393d5060.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896000556066</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Uva</t>
+          <t>Bebida Á Base De Soja Mupy 200ml Morango</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/889b3ebd-07bd-4f8b-ba76-7ab1a8f73896.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d36ab33e-0833-4456-a690-d8576a3b37e2.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896293806176</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Frisco 18g Limão</t>
+          <t>Bebida Á Base De Soja Mupy 200ml Abacaxi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd19772a-ac1a-4d50-b176-3ee1f0f41dce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e558324-9bff-4b06-ac2f-c52f72f1045e.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896293808132</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Refr Em Po Mid 20g Tangerna</t>
+          <t>Suco Concentrado Dafruta 500ml Manga</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c70ea2-d07d-4b3a-9cc4-2194b662dcbe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890358b9-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896005400050</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Limonada</t>
+          <t>Refresco Em Pó Mid 8g Zero Uva</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b80edf85-b9c1-423e-b604-2339c0560a50.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18336064-798a-4a71-90a0-39503abdd407.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891132009961</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 20g Morango</t>
+          <t>Xarope Asteca 900ml Groselha</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e56b7064-2010-4a4a-9bb0-193641a56f6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ff3f0a5-9121-4831-a3e6-e864ff9c6cb2.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896092500282</t>
         </is>
       </c>
     </row>
@@ -1892,7 +2162,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 1l Maça</t>
+          <t>Néctar De Abacaxi Del Valle Mais 1lt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1902,7 +2172,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f677a51f-fa54-49d3-ad34-1df848cd025a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7e552bd-9918-4b53-a279-5a89f9908576.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7894900660364</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Suco Del Valle 100% Del Valle 200ml Maça</t>
+          <t>Suco Del Valle Mais 1l Manga</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ec8aa58-11cc-4e06-88fb-2f63f16e245b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd187d34-11d8-46de-b674-83e9499bab3f.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7898341430111</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Suco De Uva Integral Aurora Tinto 1,5lt</t>
+          <t>Suco Del Valle Frut 450ml Laranja</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/617a9979-4932-4318-bfd4-55dbf714bd68.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd0c8f7e-e20d-49ac-b53a-274c0f7b514f.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7894900556056</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Frisco 18g Tangerina</t>
+          <t>Suco Integral De Uva Superbom 1lt</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acb8abd3-f4d1-41cf-a5ed-a875d5dfbaaf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4af8da1-3b9e-4687-8c0f-d3a9e6b816e1.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896024870964</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Chá Limão Zero Ice Tea Matte Leão Pet 1.5 Litros</t>
+          <t>Bebida Á Base De Soja Mupy 1l Abacaxi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41c89c92-3502-4d16-8d8e-38415fb83e84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eedf51b6-e5cb-4f9e-9c55-a4c55a7c3b2f.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896293808132</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Chá Pronto Matte Leão Ice Tea Pêssego 1,5lt</t>
+          <t>Néctar De Pessêgo Del Valle Mais 1lt</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c38bf0d2-4775-4649-8428-0a70fc21aa03.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e87b9165-189d-4bfd-bcf3-351f328934df.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7898341430036</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Refreco Em Pó Frisco 18g Uva</t>
+          <t>Néctar Maguary 1l Maça</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/228a0f51-1a3d-41d0-acf5-fadfa8c2f9ec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c939bfa7-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896005404195</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2386,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Maça</t>
+          <t>Néctar Maguary 1l Tangerina</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2091,7 +2396,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c939bfa7-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd4c044b-1807-46f1-9df8-49e92674a564.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896005404195</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Refresco Em Po Frisco 18g Guaraná</t>
+          <t>Refresco Em Pó Clight 8g Abacaxi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96b734b9-31d5-418d-b59f-6bfe56d62e45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed6673ba-3fa8-41cb-8952-4eb036583ac8.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891132001286</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Abacaxi</t>
+          <t>Néctar Maguary 1l Abacaxi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed6673ba-3fa8-41cb-8952-4eb036583ac8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0a3fdf5-810d-46d3-b84c-3cac4a8f3908.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896005404133</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Frisco 18g Morango</t>
+          <t>Néctar Maguary 1l Morango</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 0,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4f026d-02f2-484b-83ce-3b75b059485e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd966204-52ae-4ff5-a35e-3e3d1938f60e.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896000594198</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Uva</t>
+          <t>Refresco Em Pó Mid 8g Zero Limão</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1a3a91b-d0a4-4981-9538-6f9263d03621.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6945f94-8c80-4e6e-b5a6-8f8e3cfd3834.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891132009985</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Abacaxi</t>
+          <t>Suco Del Valle 290ml Pessego Lt</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0a3fdf5-810d-46d3-b84c-3cac4a8f3908.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9526591d-d4c1-442d-ab80-cf038a58f74d.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7894900660319</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Laranja</t>
+          <t>Água Saborizada Crystal Sparkling Limão 510ml</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac51ae42-bd33-4898-a927-953f2dbac8b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce6c4332-c61a-45d7-980f-99ae83c155f0.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7894900523003</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 1l Uva</t>
+          <t>Chá Limão Zero Ice Tea Matte Leão Pet 1.5 Litros</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d090dcb4-d9a7-4744-a6cf-cef9618decf0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41c89c92-3502-4d16-8d8e-38415fb83e84.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7891098040848</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chá Pronto Matte Leão Ice Tea Limão 1,5lt</t>
+          <t>Refresco Em Pó Mid 20gr Baunilha/limão</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39d02759-008a-4589-bdfb-48ff38482969.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cacfd3e6-9f4e-4fc5-a7bf-204f0a80b207.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7891132082421</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 20gr Baunilha/limão</t>
+          <t>Suco Caju Natural One Ambiente Garrafa 900ml</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 1,19</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cacfd3e6-9f4e-4fc5-a7bf-204f0a80b207.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c47b9f2-b5ad-4b48-8741-0166a4910099.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7899916906437</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Morango</t>
+          <t>Refr Em Po Mid 20g Jabuticaba</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e64a384f-e96a-474e-938d-364b73f66f4e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b60616d-8e79-47d2-80d7-db4c7ca545fa.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Goiaba</t>
+          <t>Cha Fuze Leao C/ Gas 290ml Limao Zero</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,39</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46a5e78f-800d-497c-999d-b9ec130a37e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6893e73-343e-4344-a34d-6ad9eaea40a4.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7891098041630</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Clight 8g Tangerina</t>
+          <t>Néctar Maguary 200ml Uva</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f32594-5633-4696-bba2-624e432db18c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5dd52494-ac40-43c0-9f2c-c0f9e694f526.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896000594099</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Néctar De Laranja Del Valle Mais 1lt</t>
+          <t>Refr Em Po Mid 20g Laranja Doce</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d589fabd-40a1-4550-ab05-ab55ad9bbf72.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5188e5d1-3be5-4ddf-903f-364102865341.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891132083084</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Chá Matte Leao 1,5l Zero Limão</t>
+          <t>Suco Del Valle 100% Del Valle 200ml Maça</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,59</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/514dac77-5654-4a3e-97fa-5d577db29376.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ec8aa58-11cc-4e06-88fb-2f63f16e245b.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7894900612004</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Caju</t>
+          <t>Bebida Á Base De Soja Ades 200ml Morango</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d35fc49-7c65-463d-a61a-a593284e2bad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76d7dd6d-0433-45dc-9c47-f11db7dbaa19.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7894900087055</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cha Matte Leão 1,5l Limão</t>
+          <t>Refr Em Po Mid 20g Abacaxi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55aafcf4-75ff-4a2f-b2fe-122e881c3a2d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b94741fa-921f-499f-bc2b-aac3a19f6e8f.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 1l Abacaxi</t>
+          <t>Refr Em Po Mid 20g Caju</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5630d2b-22e1-4f89-a9a5-f529351f6a4a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b2bcdbb-247b-43e7-afe5-ef15bcb30779.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Suco De Uva 100% Del Valle 1lt</t>
+          <t>Refr Em Po Mid 20g Goiaba</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47d2558d-b3da-4614-b135-1ab404324048.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31f27097-18ff-465b-bf82-989106a5cf37.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Morango</t>
+          <t>Refr Em Po Mid 20g Graviola</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd966204-52ae-4ff5-a35e-3e3d1938f60e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27541500-0f12-494d-bff8-f73786c8ee41.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891132082520</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 1l Laranja</t>
+          <t>Refr Em Po Mid 20g Groselha</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe027869-0727-4a0b-9367-18db15422bd5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f5f156e-9209-461b-869d-ff8af577eb43.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891132082520</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Suco De Abacaxi Kapo Del Valle 200ml</t>
+          <t>Refr Em Po Mid 20g Laranja</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d904801b-c056-4059-8acc-3e0c704f3286.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/698aa66c-4a57-4302-acfc-68bd6f77a349.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891132083084</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 200ml Maça</t>
+          <t>Refr Em Po Mid 20g Limao</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a36a8ce1-0f53-440e-919e-0fa698185684.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/420d99f8-1d38-4cb0-a881-9d55a025ec31.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891132082421</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 1l Maça</t>
+          <t>Refr Em Po Mid 20g Limonada Suiça</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b299270-f2f5-447c-bbe3-5e2ca93ddc43.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ff04911-0db0-4842-ac98-09c4b7e65e4d.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Suco De Laranja Kapo Del Valle 200ml</t>
+          <t>Refr Em Po Mid 20g Manga</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 2,89</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c8bed0f-f227-4996-b8d8-f1132147cfde.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/061054b2-fca3-4a96-8714-36c60a61f1fc.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891132001453</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Abacaxi</t>
+          <t>Refr Em Po Mid 20g Maracuja</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b309f399-51d3-4d42-a72f-063f060c1deb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de9e98b-45e2-4b07-a624-ddb1f3a37780.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891132082360</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Néctar De Pessêgo Del Valle Mais 1lt</t>
+          <t>Refr Em Po Mid 20g Tangerna</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e87b9165-189d-4bfd-bcf3-351f328934df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c70ea2-d07d-4b3a-9cc4-2194b662dcbe.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7891132082568</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Tangerina</t>
+          <t>Refr Em Po Mid 20g Uva</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd4c044b-1807-46f1-9df8-49e92674a564.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eebbfad4-de8f-49e9-89c0-48a294268bcd.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7891132082407</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 1l Pêssego</t>
+          <t>Refresco Em Pó Mid 20g Guaraná</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,19</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65b33478-79b4-4281-a10a-97c22848237b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96a0dffc-e233-48ee-954e-95ce6bb9a5e4.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7891132082568</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Néctar Sufresh 1l Uva</t>
+          <t>Néctar Dafruta 1l Maracuja</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93435600-c127-4ca9-bba9-535fd257d086.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6bc8447-dc73-4e73-be32-2c43c2d93323.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896005401279</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Néctar Dafruta 1l Caju</t>
+          <t>Suco De Tomate Integral Superbom 1lt</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d41b7a4-599a-40a8-b301-73801a28dda7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a1ecb1d-635c-40a6-b852-0e5deca85644.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896024870964</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Suco Del Valle 1l 100% Maca</t>
+          <t>Suco Concentrado Dafruta 500ml Uva</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf5c4591-149c-4606-9bdb-4e7a1e1c2e71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89d077ac-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896005400081</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 200ml Morango</t>
+          <t>Suco Del Valle Frut 1,5l Uva</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d36ab33e-0833-4456-a690-d8576a3b37e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ce1c1f4-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7894900556056</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Pêssego</t>
+          <t>Suco Laranja Natural One Ambiente Garrafa 900ml</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffd5f33d-1f5c-45f2-8a61-cd9b73c163d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/527f2cfc-bd77-4e76-95de-fe9a24f79f48.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7899916917587</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 200ml Maracuja</t>
+          <t>Chá Mate Organico Poder Da Terra 1l Pessego</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9b8163c-662f-4c38-9afd-4ba3568d3f27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fec560d-0ca3-4f38-986e-0d60d89f91c0.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7898954360393</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Chá Pronto Lipton Pêssego 1,5lt</t>
+          <t>Cha Mate Org Poder Da Terra 1l Limão</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce1c78a1-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c826f2b-7480-4f44-8a59-2704afc63f46.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7898954360379</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 200ml Laranja</t>
+          <t>Kombucha Com Hibisco E Abacaxi Puro Verde Garrafa 350ml</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/261df919-8d26-475f-bbc9-7dbe8b247791.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8872716a-f667-4675-9ab9-40408c4c7485.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7898960096606</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cha Matte Leão 1,5l Natural</t>
+          <t>Kombucha Immunity Puro Verde Garrafa 350ml</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0deb9d28-e32b-4834-881d-8adc7f9dd1f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f432799-9ebc-4c36-8a4c-5dff42a62f48.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7898960096750</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Suco Del Valle Mais 1l Manga</t>
+          <t>Kombucha Com Maracujá Puro Verde Garrafa 350ml</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd187d34-11d8-46de-b674-83e9499bab3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15b92144-aead-44cb-86e6-623eaf903aa5.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7898960096620</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Manga</t>
+          <t>Kombucha Mate Com Gengibre Puro Verde Garrafa 350ml</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d12c759e-54c6-45b6-92eb-54e26f74b668.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a3ddc3f-856f-4c05-b698-b49a2c6dc5ac.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7898960096606</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Abacaxi</t>
+          <t>Kombucha Puro Verde Garrafa 350ml Mirtilo</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b6c697-a4ea-4364-9c60-d155572a7c92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60b7c56a-f761-49c3-ab9c-1b89a77b5008.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7898960096576</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Água Saborizada Crystal Sparkling Frutas Vermelhas 510ml</t>
+          <t>Refresco Em Pó Tang Guaraná 18g</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/deede7e5-2bc9-4440-a75a-d2e40cf2faf1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d4983c3-1c18-4ab7-b24e-3df8568ae908.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7896045112449</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Néctar De Abacaxi Del Valle Mais 1lt</t>
+          <t>Refresco Em Po Tang 18g Maracuja</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7e552bd-9918-4b53-a279-5a89f9908576.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f61cf758-9664-4f58-b463-a4dc63a0c84d.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7896045112135</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Néctar Dafruta 1l Maracuja</t>
+          <t>Refresco Em Po Tang 18g Morango</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6bc8447-dc73-4e73-be32-2c43c2d93323.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f52b617-d1e8-420d-b65c-0590ce42cb07.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896045112142</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Uva</t>
+          <t>Suco Uva E Maçã Natural One Ambiente Garrafa 180ml</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 8,39</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8aed040-6e6a-4b4c-9b75-0014d38f0781.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29a2b73c-8067-4803-a63c-7320cf8ee783.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7899916906031</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 1l Morango</t>
+          <t>Suco De Banana Integral Mitto 1lt</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad4afba5-7e3a-4a5e-808f-f5e484fe1162.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c610d0e-8e02-4631-9360-84780f1365bc.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7897372187834</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 200ml Maracuja</t>
+          <t>Suco De Tangerina Integral Mitto 1lt</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19e88210-dfb8-458a-bcfd-6045fa96dbee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/460bb098-5d72-48da-98d9-f3b3d8dc44ab.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7898917467497</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 200ml Morango</t>
+          <t>Suco De Uva Tinto Integral Mitto 1lt</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de6e669-fdd6-487d-9a3e-6cff87bc2346.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48648d89-fc94-420b-9270-1b2b588b16d5.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7898767020187</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Suco Sufresh 200ml Laranja</t>
+          <t>Suco De Uva Integral Aurora Tinto 1,5lt</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 3,19</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6539302-a729-4b95-b665-42909e4c5599.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/617a9979-4932-4318-bfd4-55dbf714bd68.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7898942775321</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 8g Zero Amora</t>
+          <t>Suco De Caju Integral Mitto Vidro 300ml</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 1,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f70cf49-07eb-4622-a3cf-a8f4b7718634.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b63ab12-628e-4643-a3fd-426640416f53.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7897372187902</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Xarope Milani Groselha 900ml</t>
+          <t>Suco De Maçã Integral Mitto Vidro 300ml</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e755ea20-de2c-43e7-8283-527b529ec340.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87875829-acf0-4557-8332-094996d44076.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7898917467718</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Suco Concentrado Dafruta 500ml Caju</t>
+          <t>Suco De Manga Integral Mitto Vidro 300ml</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab5b68db-884b-4dfd-a3ae-ad80e43d016b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a093477-29ad-40b3-99a9-8f1cb9c37245.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7898767020118</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cha Fuze Leao C/ Gas 290ml Limao Zero</t>
+          <t>Suco De Uva Tinto Integral Mitto Vidro 300ml</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6893e73-343e-4344-a34d-6ad9eaea40a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a4740a4-fda0-425e-b9f7-fa4e109d80ae.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7898767020194</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 200ml Goiaba</t>
+          <t>Suco New Suco 1l Maracuja</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a77f6ef-0cd0-4436-8480-e52f9d7c5ba1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfcc3223-6b81-47ff-8d73-28e726ce0a7f.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7898344176177</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Néctar Maguary 1l Sem Açucar Uva</t>
+          <t>Suco New Suco 1l Pessego</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8b4ad0b-d07d-4067-bb6b-333be167d288.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9095186-00ab-4fa2-87a3-5b32c8ac4cbb.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7898344176191</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 8g Zero Laranja</t>
+          <t>Suco Integral Villa Piva 300ml Tangerina E Capim Cidreira</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 1,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5178420-a430-4752-b11a-7f38e733e0f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbacc037-956e-4e2c-9237-25960772e7bb.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7898965716042</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Néctar De Cajú Del Valle Mais 1lt</t>
+          <t>Suco Integral Villa Piva 1l Maça C/ Hibisco</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e35055c5-c278-4d82-9299-1fcd3f8035a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d7a049e-3f34-4e45-aa37-62a8cf6bdc0b.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7898965716127</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Água Saborizada Crystal Sparkling Limão 510ml</t>
+          <t>Suco Integral Villa Piva 300ml Maça C/ Hibisco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce6c4332-c61a-45d7-980f-99ae83c155f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ef34eb9-62f1-424d-beed-dd31e130d3a3.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7898965716042</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Suco Natural Spres 900ml Laranja</t>
+          <t>Suco Integral Villa Piva 300ml Uva E Hortela</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f46f9b0a-bba9-4574-af71-f04e0ffe086e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94e2287-67f6-4841-8ab9-a1e530ca7a41.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7898965716042</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 200ml Caju</t>
+          <t>Suco Integral Villa Piva 1l Maça</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/639031dc-3926-4b4f-adb3-c3fcb159897a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bc35200-9de6-4e90-9b01-d66187f0129d.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7898965716042</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Chá Matte Leão 1,5l Zero Natural</t>
+          <t>Suco Integral Villa Piva 1l Uva E Hortela</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/067b06d1-9611-4287-90fb-d0682e144d5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/020ee9fd-b60b-44c1-8ace-22f74e39b81a.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7898965716097</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bebida Mista Vigor 200ml Laranja</t>
+          <t>Suco Integral Villa Piva 300ml Tangerina</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef57ef4d-31f3-4904-97db-3660ca327cfb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca32b5fc-8a00-4519-91ef-c52b17422900.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7898965716042</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Néctar Dafruta 1l Goiaba</t>
+          <t>Suco Villa Piva 300ml Pink Limonade</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f94799da-b4ef-415e-87b7-3673a0bc37a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48281519-061e-4d3c-a927-3ada8e86b90c.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7898965716318</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Ades 200ml Morango</t>
+          <t>Refresco Em Po Frisco 18g Abacaxi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76d7dd6d-0433-45dc-9c47-f11db7dbaa19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a2ccb57-becd-4d93-b29c-3a46cf8a3c4d.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7896045112098</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Suco New Suco 1l Maracuja</t>
+          <t>Refresco Em Po Frisco 18g Guaraná</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfcc3223-6b81-47ff-8d73-28e726ce0a7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96b734b9-31d5-418d-b59f-6bfe56d62e45.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7896045112449</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cha Matte Leao Pet 450ml Guarana</t>
+          <t>Refresco Em Pó Frisco 18g Limão</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a750052-ce4a-453b-a41e-635a74c3f0c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd19772a-ac1a-4d50-b176-3ee1f0f41dce.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7896045112128</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 8g Zero Maracuja</t>
+          <t>Refresco Em Pó Frisco 18g Manga</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 1,49</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1025aef0-e78a-4ebd-8a39-b3f81a108f25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7861daf-2aaa-4bbd-874f-2f2f563d2a46.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7896045112142</t>
         </is>
       </c>
     </row>
@@ -3890,17 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 8g Zero Limão</t>
+          <t>Refresco Em Pó Frisco 18g Maracuja</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 1,49</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6945f94-8c80-4e6e-b5a6-8f8e3cfd3834.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6da1cc9-9a2f-4542-91ea-171a79f984ce.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7896045112135</t>
         </is>
       </c>
     </row>
@@ -3917,17 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Néctar Maguary 200ml Uva</t>
+          <t>Refresco Em Pó Frisco 18g Morango</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5dd52494-ac40-43c0-9f2c-c0f9e694f526.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4f026d-02f2-484b-83ce-3b75b059485e.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7896045112142</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4594,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Suco Concentrado Maguary 500ml Goiaba</t>
+          <t>Refresco Em Pó Frisco 18g Tangerina</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>R$ 8,59</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2e5b630-84ef-4e02-b0ba-aecc393d5060.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acb8abd3-f4d1-41cf-a5ed-a875d5dfbaaf.jpg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7896045112432</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4626,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Néctar De Maracujá Del Valle Mais 1lt</t>
+          <t>Nectar Goiaba Spres 900 Ml</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71c00c7e-f7d3-4a15-b6df-246ad12547da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/142de75f-d31c-40f6-a2b5-55d443c90051.jpg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7897195981350</t>
         </is>
       </c>
     </row>
@@ -3998,17 +4658,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Suco New Suco 1l Uva</t>
+          <t>Refreco Em Pó Frisco 18g Uva</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 1,29</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81bb5c75-c729-4bca-8c25-4f8b6b0f42b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/228a0f51-1a3d-41d0-acf5-fadfa8c2f9ec.jpg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7896045112104</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4690,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Suco De Laranja 100% Del Valle 1lt</t>
+          <t>Bebida Vegetal Protein Not Milk 250ml Baunilha E Coco</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3343447c-bf86-4e4f-a90b-f641a43e735e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f34029b-be4d-477e-aa58-02e5e6e73d2e.jpg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7898686950466</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4722,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 200ml Abacaxi</t>
+          <t>Bebida Vegetal Protein Not Milk 250ml Chocolate</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e558324-9bff-4b06-ac2f-c52f72f1045e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f7caebe-8146-4e99-b283-416d1ba9aad7.jpg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7898686950459</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4754,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Chá Preto Pêssego Ice Tea Lipton Lata 340ml</t>
+          <t>Suco Misto Natural One 180ml Laranja E Maça Ambiente</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e901846-608e-4812-b854-60a6b8e40b18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08e527a0-a322-4644-bdf4-a564ca823b79.jpg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7899916917150</t>
         </is>
       </c>
     </row>
@@ -4106,17 +4786,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bebida Mista Vigor 200ml Maça</t>
+          <t>Suco Nutri Nectar 1l Manga</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>R$ 2,79</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91a12b58-337d-4bff-a791-9a2a695821ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0faec5bf-e92b-4041-b06b-b9d05cab4081.jpg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7898961490465</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4818,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Suco Integral Villa Piva 1l Uva</t>
+          <t>Suco Nutri Nectar 200ml Caju</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dd9e769-d79f-4ad3-9145-ba6f69b2e240.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/639031dc-3926-4b4f-adb3-c3fcb159897a.jpg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7898961490519</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4850,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Chá Verde Com Limão Feel Good 1lt</t>
+          <t>Suco Nutri Nectar 200ml Goiaba</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfe37071-e5b8-4496-8b9a-4904baf5fd1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a77f6ef-0cd0-4436-8480-e52f9d7c5ba1.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7898961490519</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4882,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Néctar Sufresh 1l Maça</t>
+          <t>Suco Nutri Nectar 200ml Laranja</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27b9eefb-0d63-4321-9cdb-bbe53c7812a8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/261df919-8d26-475f-bbc9-7dbe8b247791.jpg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7898961490519</t>
         </is>
       </c>
     </row>
@@ -4214,17 +4914,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Suco Del Valle 290ml Pessego Lt</t>
+          <t>Suco Nutri Nectar 200ml Maracuja</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9526591d-d4c1-442d-ab80-cf038a58f74d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19e88210-dfb8-458a-bcfd-6045fa96dbee.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7898920195097</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4946,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Néctar Del Valle Mais Sabor Pêssego Light 1lt</t>
+          <t>Suco Nutri Nectar 200ml Morango</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a31c745c-0c60-4f4b-b1b2-1f496458132e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de6e669-fdd6-487d-9a3e-6cff87bc2346.jpg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7898961490427</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4978,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Suco 100% Tial Kids 200ml Uva S/açucar</t>
+          <t>Cha Mate C/gas Baer-mate Lt 269ml</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f299a03-5d28-49cd-a6f9-9831cc67e280.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cbb45ae-b61c-46b2-8b27-fc2e27aed132.jpg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7898694491449</t>
         </is>
       </c>
     </row>
@@ -4295,17 +5010,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nectar Sufresh 1l Manga</t>
+          <t>Nectar Sufresh 265ml Laranja</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e50c7786-1ce9-42b7-b1bc-8d7c78e01649.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b54ed639-41a5-427d-9738-61fa271704b5.jpg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7898192032748</t>
         </is>
       </c>
     </row>
@@ -4322,17 +5042,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Suco New Suco 1l Pessego</t>
+          <t>Suco Integral Aurora Caixa 1,5l Maça</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9095186-00ab-4fa2-87a3-5b32c8ac4cbb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9dbb2896-a537-469d-a03f-932434799cc6.jpg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7898942775826</t>
         </is>
       </c>
     </row>
@@ -4349,17 +5074,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Chá Pronto Lipton Limão 1,5lt</t>
+          <t>Nectar Tial 1l Uva</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdfef6c2-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb60589-5e2d-4a4c-9e3f-9ef3d590e139.jpg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7896005311707</t>
         </is>
       </c>
     </row>
@@ -4376,17 +5106,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Xarope Asteca 900ml Groselha</t>
+          <t>Nectar Kids Tial 200ml Caju</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ff3f0a5-9121-4831-a3e6-e864ff9c6cb2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fba89a19-208e-4a28-ad56-abc524a89c8e.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7896005303764</t>
         </is>
       </c>
     </row>
@@ -4403,17 +5138,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cha Mate Leao C/gas 290ml Limao</t>
+          <t>Nectar Kids Tial 200ml Goiaba</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b4d8ff9-e7a6-4d85-84b6-d04ddcdc0300.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4d88a0a-e114-4fe4-ba8e-369e33cc799f.jpg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7896005311776</t>
         </is>
       </c>
     </row>
@@ -4430,17 +5170,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cha Verde Limão Leão Reequilibra 450ml Zero</t>
+          <t>Nectar Kids Tial 200ml Laranja</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c971d128-a40f-481c-8d11-8272d1eb9e2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adf30046-e740-4387-8d5a-e4ad56688df1.jpg</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7896005311783</t>
         </is>
       </c>
     </row>
@@ -4457,17 +5202,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Suco Del Valle 290ml Uva Lt</t>
+          <t>Nectar Kids Tial 200ml Manga</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1259b76-c177-478b-b183-436164413910.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba1f24c8-3bd0-4f39-88fa-c91978f7884e.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7896005311769</t>
         </is>
       </c>
     </row>
@@ -4484,17 +5234,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Suco Caju Natural One Ambiente Garrafa 900ml</t>
+          <t>Nectar Kids Tial 200ml Maracuja</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c47b9f2-b5ad-4b48-8741-0166a4910099.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/580339f4-f0ad-4df1-b985-dedcd735171f.jpg</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7896005309926</t>
         </is>
       </c>
     </row>
@@ -4511,17 +5266,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 1l Abacaxi</t>
+          <t>Nectar Kids Tial 200ml Pessego</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea33124f-93a0-4537-bdf7-52f4c9fa5aff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32459ac9-fe51-4c47-a76a-b36a5ffc0d5b.jpg</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7896005311790</t>
         </is>
       </c>
     </row>
@@ -4538,17 +5298,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Néctar Dafruta 200ml Laranja</t>
+          <t>Nectar Kids Tial 200ml Uva</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 2,69</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edfe8b9f-9ed4-4612-8fab-313e20a0b0b5.jpg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7896005311707</t>
         </is>
       </c>
     </row>
@@ -4565,17 +5330,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Suco De Uva Tinto Integral Mitto 1lt</t>
+          <t>Suco 100% Tial 1l Goiaba/pera S/açucar</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48648d89-fc94-420b-9270-1b2b588b16d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/660f20f2-9dbe-4b8d-a4fc-654154cf19f1.jpg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7896005310359</t>
         </is>
       </c>
     </row>
@@ -4592,17 +5362,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bebida Á Base De Soja Mupy 1l Abacaxi</t>
+          <t>Suco 100% Tial 1l Manga S/açucar</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eedf51b6-e5cb-4f9e-9c55-a4c55a7c3b2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b16a23ee-4349-48a4-9e9c-fc8edff6d061.jpg</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7896005310366</t>
         </is>
       </c>
     </row>
@@ -4619,17 +5394,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Mid 10g Zero Tangerina</t>
+          <t>Nectar Tial 1l Caju</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>R$ 1,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7ab7f2e-360a-4792-a953-dc3d16b89122.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c81a000b-26e4-488a-b915-f07607cc9a9e.jpg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7896005302255</t>
         </is>
       </c>
     </row>
@@ -4646,17 +5426,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Suco Concentrado Del Valle Uva 450ml</t>
+          <t>Suco 100% Tial 1l Abacaxi S/açucar</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f14f0364-4fff-48b5-a78f-e28e604cfe24.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/309c8e31-0131-4e12-821e-dc45be7ed58e.jpg</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7896005311899</t>
         </is>
       </c>
     </row>
@@ -4673,17 +5458,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Chá Pronto Leão Ice Tea Zero Açúcar Preto Com Pêssego 450ml</t>
+          <t>Suco 100% Tial 1l Maracuja S/açucar</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b43bda1-87f4-4136-83a6-55a562f1b396.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5d3fb0f-1781-45cf-b793-1ef6b6f7148f.jpg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>7896005311998</t>
         </is>
       </c>
     </row>
@@ -4700,17 +5490,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Suco Nutri Nectar 1l Manga</t>
+          <t>Suco 100% Tial 1l Morango S/açucar</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0faec5bf-e92b-4041-b06b-b9d05cab4081.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4313861-109f-4f28-8d9c-01ee15feef64.jpg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7896005310366</t>
         </is>
       </c>
     </row>
@@ -4727,17 +5522,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Néctar Sufresh 1l Caju</t>
+          <t>Suco 100% Tial 1l Pessego S/açucar</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96910519-3e59-4bd3-ae67-67e3de3edbfa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faecd254-fbdf-4727-900e-6758a9cbf580.jpg</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7896005310373</t>
         </is>
       </c>
     </row>
@@ -4754,17 +5554,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Suco Natural One 1,3l Laranja E Maça Ambiente</t>
+          <t>Suco 100% Tial 1l Uva S/açucar</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,89</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b82f06d-1dd3-4037-9316-09f1ff39e469.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7ea2117-daab-42b5-aaed-7bf073bdd826.jpg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7896005311684</t>
         </is>
       </c>
     </row>
@@ -4781,17 +5586,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bebida À Base De Amêndoas Ades Baunilha 1lt</t>
+          <t>Suco 100% Tial Kids 200ml Morango S/açucar</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>R$ 15,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfba626a-1318-4a9f-ab5b-f23ebf061d2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b5f8ab6-52fa-4b25-ba1f-e3f3edecd70e.jpg</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7896005311684</t>
         </is>
       </c>
     </row>
@@ -4808,17 +5618,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Chá Pronto Leão Ice Tea Preto Com Pêssego 450ml</t>
+          <t>Suco 100% Tial Kids 200ml Pessego S/açucar</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e5fd48-a42f-45c2-a832-0d25802d77a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/667a0e8f-fba4-41b2-b243-2bfa1bdcbede.jpg</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7896005310373</t>
         </is>
       </c>
     </row>
@@ -4835,17 +5650,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bebida Vegetal Not Milk 1 Litro Café E Caramelo</t>
+          <t>Suco 100% Tial Kids 200ml Uva S/açucar</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1104fe67-950c-4c0e-bb73-093659dac3c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f299a03-5d28-49cd-a6f9-9831cc67e280.jpg</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7896005311684</t>
         </is>
       </c>
     </row>
@@ -4862,7 +5682,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Suco Del Valle Frut 450ml Laranja</t>
+          <t>Suco 100% Tial Maria Clara 200ml Maça S/açucar</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4872,7 +5692,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd0c8f7e-e20d-49ac-b53a-274c0f7b514f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7c829a2-c9be-4870-aa5c-98f060b20760.jpg</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7896005311684</t>
         </is>
       </c>
     </row>
@@ -4889,17 +5714,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Suco 100% Tial Kids 200ml Morango S/açucar</t>
+          <t>Cha Energy Puro Verde 350ml Garrafa</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b5f8ab6-52fa-4b25-ba1f-e3f3edecd70e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0812b801-4686-4294-b8ae-0a1ed37e5d48.jpg</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7898960096880</t>
         </is>
       </c>
     </row>
@@ -4916,17 +5746,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Suco Concentrado Dafruta 500ml Uva</t>
+          <t>Chá Mate Baer Matcha Long Neck 350ml</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89d077ac-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aad9c3e-1802-4e3c-8323-5d4c0676845f.jpg</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7898694491456</t>
         </is>
       </c>
     </row>
@@ -4943,17 +5778,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Suco Concentrado Dafruta 500ml Manga</t>
+          <t>Suco Natural One 1,3l Uva/pera E Maça Refrigerado</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/890358b9-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76c74e93-1e15-4a8a-9bda-78d1a6d7a58b.jpg</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7899916918645</t>
         </is>
       </c>
     </row>
@@ -4970,17 +5810,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Néctar De Maracujá Sufresh 200ml</t>
+          <t>Suco Integral Natural One 1,3l Maça Ambiente</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>R$ 3,19</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/269c5870-a432-4331-9d47-8d131f9e890e.jpg</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7899916918683</t>
         </is>
       </c>
     </row>
@@ -4997,17 +5842,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bebida À Base De Amêndoa Ades Original 1lt</t>
+          <t>Suco Del Valle Mais Tp 200ml Laranja</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>R$ 15,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca71b778-3ac2-45b3-9993-d764397d546d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ed324c0-d8f4-43ca-8cc8-ca9f48728144.jpg</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7894900660418</t>
         </is>
       </c>
     </row>
@@ -5024,17 +5874,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Suco 100% Tial Kids 200ml Pessego S/açucar</t>
+          <t>Suco Del Valle Mais Tp 200ml Pessego</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/667a0e8f-fba4-41b2-b243-2bfa1bdcbede.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34cb629e-f107-46e3-ad50-d25629066efa.jpg</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7894900660425</t>
         </is>
       </c>
     </row>
@@ -5051,17 +5906,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Bebida Vegetal Protein Not Milk 250ml Chocolate</t>
+          <t>Suco Del Valle Mais Tp 200ml Uva</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f7caebe-8146-4e99-b283-416d1ba9aad7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/261bd29e-4249-4409-a931-b1e6ccf6ca66.jpg</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7894900660418</t>
         </is>
       </c>
     </row>
@@ -5078,17 +5938,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Suco Natural One 1,3l Uva/pera E Maça Refrigerado</t>
+          <t>Suco Mupy Saquinho 200ml Limao</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76c74e93-1e15-4a8a-9bda-78d1a6d7a58b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d65cbb9-b32b-4b48-a164-5d1bb71409b3.jpg</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7896293806015</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5970,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Refresco Em Pó Tang 18g Azul Espacial</t>
+          <t>Suco Mupy Saq 200ml Uva</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>R$ 1,29</t>
+          <t>R$ 2,39</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa91b4f3-a60b-44cb-a807-26b593f6e95e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14c5cb1c-261f-40a8-834c-35cd517d8f4e.jpg</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7896293806060</t>
         </is>
       </c>
     </row>
@@ -5132,17 +6002,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Suco Del Valle Mais Tp 200ml Uva</t>
+          <t>Suco Del Valle Mais 1l Goiaba Sem Açúcar</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/261bd29e-4249-4409-a931-b1e6ccf6ca66.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a743632-3347-426c-a85e-3cd18a466576.jpg</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7898341430081</t>
         </is>
       </c>
     </row>
@@ -5159,17 +6034,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Suco Integral Aurora Caixa 1,5l Maça</t>
+          <t>Suco Kapo Del Valle 200ml Maça</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9dbb2896-a537-469d-a03f-932434799cc6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae1bba13-0d1f-4094-ab97-14a668b2cf0f.jpg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7894900650013</t>
         </is>
       </c>
     </row>
@@ -5186,17 +6066,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Suco Integral Villa Piva 1l Maça</t>
+          <t>Chá Ice Tea Leão 450ml Guaraná</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bc35200-9de6-4e90-9b01-d66187f0129d.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7891098040848</t>
         </is>
       </c>
     </row>
@@ -5213,17 +6098,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Nectar Kids Tial 200ml Uva</t>
+          <t>Suco Concentrado Del Valle Uva 1lt</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>R$ 2,69</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edfe8b9f-9ed4-4612-8fab-313e20a0b0b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efc57f06-c048-495a-945b-da74d35e6b01.jpg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7894900660333</t>
         </is>
       </c>
     </row>
@@ -5240,17 +6130,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Chá Pronto Leão Ice Tea Preto Com Limão 450ml</t>
+          <t>Suco Concentrado Del Valle Uva 450ml</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdbc7288-2e86-4e04-875b-fbe4753f1fdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f14f0364-4fff-48b5-a78f-e28e604cfe24.jpg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7894900660333</t>
         </is>
       </c>
     </row>
@@ -5267,17 +6162,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Suco 100% Tial Maria Clara 200ml Maça S/açucar</t>
+          <t>Suco De Uva Kapo Del Valle 200ml</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7c829a2-c9be-4870-aa5c-98f060b20760.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a2d1e9d-da58-4807-be07-2e3d39d7c5d9.jpg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7894900593709</t>
         </is>
       </c>
     </row>
@@ -5294,17 +6194,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Suco 100% Tial 1l Uva S/açucar</t>
+          <t>Suco Del Valle 1l 100% Maca</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>R$ 13,89</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7ea2117-daab-42b5-aaed-7bf073bdd826.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf5c4591-149c-4606-9bdb-4e7a1e1c2e71.jpg</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>7894900612004</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6226,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Chá Matte Leão Sabor Limão 450ml</t>
+          <t>Suco Concentrado Del Valle Laranja 1lt</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d32ad01-9e38-4109-9a4d-8d8c4563d8b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9da537b-75ae-4ca7-b08b-8463ef6711f7.jpg</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7894900610017</t>
         </is>
       </c>
     </row>
@@ -5348,17 +6258,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Cha Mate Org Poder Da Terra 1l Limão</t>
+          <t>Bebida Á Base De Soja Ades 1l Abacaxi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c826f2b-7480-4f44-8a59-2704afc63f46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5630d2b-22e1-4f89-a9a5-f529351f6a4a.jpg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7894900087000</t>
         </is>
       </c>
     </row>
@@ -5375,7 +6290,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cha Mate C/gas Baer-mate Grf 350ml</t>
+          <t>Néctar De Laranja Del Valle Mais 1lt</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5385,7 +6300,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9b7b50f-f461-477c-8192-83e2e8566181.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d589fabd-40a1-4550-ab05-ab55ad9bbf72.jpg</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>7898341430111</t>
         </is>
       </c>
     </row>
@@ -5402,17 +6322,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Suco Del Vale Frut 450ml Citricus</t>
+          <t>Bebida Á Base De Soja Ades 1l Uva</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85af0262-3996-4503-bc23-0aea62eb84a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d090dcb4-d9a7-4744-a6cf-cef9618decf0.jpg</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7894900087123</t>
         </is>
       </c>
     </row>
@@ -5429,17 +6354,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Suco Uva E Maçã Natural One Ambiente Garrafa 900ml</t>
+          <t>Suco De Laranja 100% Del Valle 1lt</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/950c726c-4c58-4a9a-aa32-1692f399262e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3343447c-bf86-4e4f-a90b-f641a43e735e.jpg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>7894900610017</t>
         </is>
       </c>
     </row>
@@ -5456,17 +6386,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Suco De Tangerina Integral Mitto 1lt</t>
+          <t>Suco Del Vale Frut 450ml Citricus</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/460bb098-5d72-48da-98d9-f3b3d8dc44ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85af0262-3996-4503-bc23-0aea62eb84a2.jpg</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7894900666502</t>
         </is>
       </c>
     </row>
@@ -5483,17 +6418,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Suco 100% Tial 1l Maracuja S/açucar</t>
+          <t>Bebida Á Base De Soja Ades 1l Laranja</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>R$ 13,89</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5d3fb0f-1781-45cf-b793-1ef6b6f7148f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe027869-0727-4a0b-9367-18db15422bd5.jpg</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>7894900087048</t>
         </is>
       </c>
     </row>
@@ -5510,17 +6450,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Suco 100% Tial 1l Pessego S/açucar</t>
+          <t>Néctar Del Valle Mais Sabor Pêssego Light 1lt</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>R$ 13,89</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faecd254-fbdf-4727-900e-6758a9cbf580.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a31c745c-0c60-4f4b-b1b2-1f496458132e.jpg</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>7898341430036</t>
         </is>
       </c>
     </row>
@@ -5537,17 +6482,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Suco 100% Tial 1l Abacaxi S/açucar</t>
+          <t>Suco De Maracujá Kapo Del Valle 200ml</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>R$ 13,89</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/309c8e31-0131-4e12-821e-dc45be7ed58e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/128c3e84-2dfd-46e6-bb7a-b67573b3d46a.jpg</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7894900593709</t>
         </is>
       </c>
     </row>
@@ -5564,17 +6514,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Bebida De Soja Longa Vida Mupy 200ml Laranja</t>
+          <t>Suco De Laranja Kapo Del Valle 200ml</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 2,89</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14e160bc-7678-4585-8e30-51af30e2e96b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c8bed0f-f227-4996-b8d8-f1132147cfde.jpg</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>7894900593709</t>
         </is>
       </c>
     </row>
@@ -5591,1475 +6546,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Suco Del Valle Mais Tp 200ml Laranja</t>
+          <t>Suco Del Valle 290ml Uva Lt</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ed324c0-d8f4-43ca-8cc8-ca9f48728144.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 1l Uva E Hortela</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/020ee9fd-b60b-44c1-8ace-22f74e39b81a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Pessego</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32459ac9-fe51-4c47-a76a-b36a5ffc0d5b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Suco 100% Tial 1l Manga S/açucar</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>R$ 13,89</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b16a23ee-4349-48a4-9e9c-fc8edff6d061.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 300ml Tangerina</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca32b5fc-8a00-4519-91ef-c52b17422900.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Suco 100% Tial 1l Morango S/açucar</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>R$ 13,89</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4313861-109f-4f28-8d9c-01ee15feef64.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Suco Mupy Saq 200ml Pessego</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>R$ 2,39</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61d806da-eae2-4dec-916f-0d75d878c3e4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Suco Mupy Saq 200ml Uva</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>R$ 2,39</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14c5cb1c-261f-40a8-834c-35cd517d8f4e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Suco Integral De Uva Superbom 1lt</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4af8da1-3b9e-4687-8c0f-d3a9e6b816e1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Chá Pronto Leão Matte Original 450ml</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>R$ 4,69</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3dbb329-d651-4683-bd59-2841f6ce8a83.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Suco De Maçã Integral Mitto Vidro 300ml</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87875829-acf0-4557-8332-094996d44076.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Suco De Uva Tinto Integral Mitto Vidro 300ml</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a4740a4-fda0-425e-b9f7-fa4e109d80ae.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 1l Maça C/ Hibisco</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d7a049e-3f34-4e45-aa37-62a8cf6bdc0b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Suco 100% Tial 1l Goiaba/pera S/açucar</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>R$ 13,89</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/660f20f2-9dbe-4b8d-a4fc-654154cf19f1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Suco Del Valle Mais Tp 200ml Pessego</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34cb629e-f107-46e3-ad50-d25629066efa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Xarope Monin Cranberry 700ml</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>R$ 64,99</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b13049c-d7b5-40b3-b1c2-7f7f6ba481b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Suco De Tomate Integral Superbom 1lt</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a1ecb1d-635c-40a6-b852-0e5deca85644.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Suco De Banana Integral Mitto 1lt</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c610d0e-8e02-4631-9360-84780f1365bc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Manga</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba1f24c8-3bd0-4f39-88fa-c91978f7884e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Suco De Caju Integral Mitto Vidro 300ml</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b63ab12-628e-4643-a3fd-426640416f53.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 300ml Uva E Hortela</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94e2287-67f6-4841-8ab9-a1e530ca7a41.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Chá Mate Organico Poder Da Terra 1l Pessego</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fec560d-0ca3-4f38-986e-0d60d89f91c0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 300ml Maça</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15e2e298-a005-4ab6-b2ee-99b61d79ab74.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Maracuja</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/580339f4-f0ad-4df1-b985-dedcd735171f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Nectar Tial 1l Caju</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c81a000b-26e4-488a-b915-f07607cc9a9e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Xarope Monin Maçã Verde 700ml</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>R$ 64,99</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09a6207e-e6eb-478b-bb91-a9f5e24b34de.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Suco De Manga Integral Mitto Vidro 300ml</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a093477-29ad-40b3-99a9-8f1cb9c37245.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Bebida Vegetal Protein Not Milk 250ml Baunilha E Coco</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f34029b-be4d-477e-aa58-02e5e6e73d2e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Suco Integral Natural One 1,3l Maça Ambiente</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/269c5870-a432-4331-9d47-8d131f9e890e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Xarope Monin Limão Siciliano 700ml</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>R$ 64,99</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03c9f8d9-4662-4994-9710-e0f81f71dc37.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Kombucha Com Hibisco E Abacaxi Puro Verde Garrafa 350ml</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8872716a-f667-4675-9ab9-40408c4c7485.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 300ml Tangerina E Capim Cidreira</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbacc037-956e-4e2c-9237-25960772e7bb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Cha Mate C/gas Baer-mate Lt 269ml</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cbb45ae-b61c-46b2-8b27-fc2e27aed132.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Kombucha Mate Com Gengibre Puro Verde Garrafa 350ml</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a3ddc3f-856f-4c05-b698-b49a2c6dc5ac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Xarope Monin 700ml Morango</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>R$ 64,99</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15e9b392-a869-4dd6-ad12-aaff8bc31bf1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Suco Villa Piva 300ml Pink Limonade</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48281519-061e-4d3c-a927-3ada8e86b90c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Nectar Tial 1l Uva</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cb60589-5e2d-4a4c-9e3f-9ef3d590e139.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Kombucha Immunity Puro Verde Garrafa 350ml</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f432799-9ebc-4c36-8a4c-5dff42a62f48.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Kombucha Puro Verde Garrafa 350ml Mirtilo</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60b7c56a-f761-49c3-ab9c-1b89a77b5008.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Suco Villa Piva 1l Tomate</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c039d3f1-54ca-4657-8ca3-37d14696460a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Kombucha Com Maracujá Puro Verde Garrafa 350ml</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15b92144-aead-44cb-86e6-623eaf903aa5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Nectar Goiaba Spres 900 Ml</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/142de75f-d31c-40f6-a2b5-55d443c90051.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Suco Del Valle Mais 1l Goiaba Sem Açúcar</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a743632-3347-426c-a85e-3cd18a466576.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Suco Kapo Del Valle 200ml Olho Do Pirata</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>R$ 2,89</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e80e7ba7-8e69-4dcd-982c-fad8fd08420a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Suco Del Valle Frut 1,5l Uva</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>R$ 6,49</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ce1c1f4-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Suco Integral Villa Piva 300ml Maça C/ Hibisco</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ef34eb9-62f1-424d-beed-dd31e130d3a3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Caju</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fba89a19-208e-4a28-ad56-abc524a89c8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Goiaba</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4d88a0a-e114-4fe4-ba8e-369e33cc799f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Nectar Kids Tial 200ml Laranja</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>R$ 2,69</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adf30046-e740-4387-8d5a-e4ad56688df1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Chá Mate Baer Matcha Long Neck 350ml</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aad9c3e-1802-4e3c-8323-5d4c0676845f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Suco Del Valle Frut 1,5l Limão</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>R$ 6,49</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/032cc329-5ba8-4647-b3aa-9579c19ecc40.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Nectar Sufresh 265ml Laranja</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b54ed639-41a5-427d-9738-61fa271704b5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Cha Energy Puro Verde 350ml Garrafa</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0812b801-4686-4294-b8ae-0a1ed37e5d48.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Suco Kapo Del Valle 200ml Maça</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>R$ 2,89</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae1bba13-0d1f-4094-ab97-14a668b2cf0f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Sucos e cha</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Chá Ice Tea Leão 450ml Guaraná</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1259b76-c177-478b-b183-436164413910.jpg</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7894900660333</t>
         </is>
       </c>
     </row>
